--- a/biology/Zoologie/Bitis_rhinoceros/Bitis_rhinoceros.xlsx
+++ b/biology/Zoologie/Bitis_rhinoceros/Bitis_rhinoceros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vipère du Gabon de l'Ouest
-Bitis rhinoceros, la Vipère du Gabon de l'Ouest, est une espèce de serpents de la famille des Viperidae[1].
+Bitis rhinoceros, la Vipère du Gabon de l'Ouest, est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Guinée-Bissau, en Guinée, en Sierra Leone, au Liberia, en Côte d'Ivoire, au Ghana et au Togo[1]. 
-D’après Spawls &amp; Branch en 1995, le Ghana et le Togo représentent la limite orientale de l’aire de répartition de cette espèce. C'est dans cet endroit qu'elle a commencé à s’hybrider avec B. gabonica. La carte de la distribution qu’ils produisent n’inclut pas le Togo, mais au moins un spécimen est mentionné dans un rapport sur ce pays[2]. Le Togo, le Bénin et l’Est du Ghana font partie d’une région connue sous le nom de Dahomey Gap : une région relativement sèche qui sépare les forêts humides de l’Afrique orientale de celles de l’Afrique centrale[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Guinée-Bissau, en Guinée, en Sierra Leone, au Liberia, en Côte d'Ivoire, au Ghana et au Togo. 
+D’après Spawls &amp; Branch en 1995, le Ghana et le Togo représentent la limite orientale de l’aire de répartition de cette espèce. C'est dans cet endroit qu'elle a commencé à s’hybrider avec B. gabonica. La carte de la distribution qu’ils produisent n’inclut pas le Togo, mais au moins un spécimen est mentionné dans un rapport sur ce pays. Le Togo, le Bénin et l’Est du Ghana font partie d’une région connue sous le nom de Dahomey Gap : une région relativement sèche qui sépare les forêts humides de l’Afrique orientale de celles de l’Afrique centrale,.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bitis rhinoceros se distingue de Bitis gabonica, dont elle a longtemps été considérée comme une sous-espèce[5], principalement par la présence de plusieurs écailles nasales distinctives qui ressemblent à une paire de cornes sur son nez[6]. Elle partage cette caractéristique avec un proche parent, Bitis nasicornis. Toutefois, B. nasicornis revêt des couleurs plus claires et possède une tête plus étroite[2]. B. gabonica ne possède pas des cornes aussi larges et est beaucoup moins grande que B. rhinoceros. On remarque également chez B. gabonica, que le triangle sombre à l'arrière de l'œil est divisé, ce qui n'est pas le cas chez B. rhinoceros. Cette vipère est la plus grande et la plus massive vipère d'Afrique. Ce serpent solénoglyphe à une tête très élargie vers l'arrière, des crochets mesurant jusqu'à 5 cm de long et des glandes venimeuses énormes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bitis rhinoceros se distingue de Bitis gabonica, dont elle a longtemps été considérée comme une sous-espèce, principalement par la présence de plusieurs écailles nasales distinctives qui ressemblent à une paire de cornes sur son nez. Elle partage cette caractéristique avec un proche parent, Bitis nasicornis. Toutefois, B. nasicornis revêt des couleurs plus claires et possède une tête plus étroite. B. gabonica ne possède pas des cornes aussi larges et est beaucoup moins grande que B. rhinoceros. On remarque également chez B. gabonica, que le triangle sombre à l'arrière de l'œil est divisé, ce qui n'est pas le cas chez B. rhinoceros. Cette vipère est la plus grande et la plus massive vipère d'Afrique. Ce serpent solénoglyphe à une tête très élargie vers l'arrière, des crochets mesurant jusqu'à 5 cm de long et des glandes venimeuses énormes.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Principalement nocturne, Bitis rhinoceros a la réputation d'être lente et placide. Elle chasse habituellement en embuscade, passant souvent de longues périodes, immobile, dans l'attente d'une proie qui lui convienne. Par contre, il est fréquent qu'elle pratique une chasse active au cours des six premières heures de la nuit. Au Ghana, à Kumasi, plusieurs vipères étaient régulièrement tuées autour des écuries, à proximité d'une forêt située à 500 mètres - signe qu'elles étaient venues chasser des rats dans la prairie. Ce sont généralement des serpents très calmes, même lorsqu'ils sont manipulés, et il leur arrive rarement de mordre ou siffler. Toutefois, des morsures par des individus de mauvaise humeur arrivent parfois[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Principalement nocturne, Bitis rhinoceros a la réputation d'être lente et placide. Elle chasse habituellement en embuscade, passant souvent de longues périodes, immobile, dans l'attente d'une proie qui lui convienne. Par contre, il est fréquent qu'elle pratique une chasse active au cours des six premières heures de la nuit. Au Ghana, à Kumasi, plusieurs vipères étaient régulièrement tuées autour des écuries, à proximité d'une forêt située à 500 mètres - signe qu'elles étaient venues chasser des rats dans la prairie. Ce sont généralement des serpents très calmes, même lorsqu'ils sont manipulés, et il leur arrive rarement de mordre ou siffler. Toutefois, des morsures par des individus de mauvaise humeur arrivent parfois.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bitis rhinoceros se nourrit de rongeurs et d'oiseaux.
 </t>
@@ -637,7 +657,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La Vipère du Gabon est ovovivipare, la femelle pond entre 20 et 50 œufs par ponte. L'incubation est d'environ 1 an.
 </t>
